--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
   </bookViews>
   <sheets>
-    <sheet name="sitemap" sheetId="1" r:id="rId4"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.0</t>
   </si>
@@ -116,197 +120,334 @@
     <t>**delete_flg</t>
   </si>
   <si>
-    <t>ホーム</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
     <t>top</t>
   </si>
   <si>
-    <t>サンプルページ1</t>
-  </si>
-  <si>
-    <t>/sample_pages/</t>
-  </si>
-  <si>
-    <t>sample, サンプル</t>
-  </si>
-  <si>
-    <t>このページはPxFWのサンプルコードとして予め用意されたものです。サンプルが不要であれば、sample_pagesディレクトリとともに削除してください。</t>
-  </si>
-  <si>
-    <t>FESSスタイルガイド</t>
-  </si>
-  <si>
-    <t>/sample_pages/fess/</t>
-  </si>
-  <si>
-    <t>ユニットモジュール</t>
-  </si>
-  <si>
-    <t>/sample_pages/fess/units/</t>
-  </si>
-  <si>
-    <t>パーツモジュール</t>
-  </si>
-  <si>
-    <t>/sample_pages/fess/parts/</t>
-  </si>
-  <si>
-    <t>スタティックモジュール</t>
-  </si>
-  <si>
-    <t>/sample_pages/fess/statics/</t>
-  </si>
-  <si>
-    <t>ボックスモジュール</t>
-  </si>
-  <si>
-    <t>/sample_pages/fess/boxes/</t>
-  </si>
-  <si>
-    <t>Bootstrapスタイルガイド</t>
-  </si>
-  <si>
-    <t>/sample_pages/bootstrap/</t>
-  </si>
-  <si>
-    <t>ページタイトル
-(H1見出しのラベル)</t>
-  </si>
-  <si>
-    <t>ページタイトル(リンクのラベル)</t>
-  </si>
-  <si>
-    <t>ページタイトル(パンくずのラベル)</t>
-  </si>
-  <si>
-    <t>/sample_pages/page1/1.html</t>
-  </si>
-  <si>
-    <t>PHPコード埋め込み</t>
-  </si>
-  <si>
-    <t>/sample_pages/page1/2.html</t>
-  </si>
-  <si>
-    <t>Markdown記法</t>
-  </si>
-  <si>
-    <t>/sample_pages/page1/3.html</t>
-  </si>
-  <si>
-    <t>ダイナミックパス</t>
-  </si>
-  <si>
-    <t>/sample_pages/page1/4/{*}</t>
-  </si>
-  <si>
-    <t>/sample_pages/page1/4/index.html</t>
-  </si>
-  <si>
-    <t>サンプルページ2へのエイリアス</t>
-  </si>
-  <si>
-    <t>alias:/sample_pages/page2/</t>
-  </si>
-  <si>
-    <t>サンプルページ2</t>
-  </si>
-  <si>
-    <t>/sample_pages/page2/</t>
-  </si>
-  <si>
-    <t>サンプル2-1</t>
-  </si>
-  <si>
-    <t>/sample_pages/page2/1.htm</t>
-  </si>
-  <si>
-    <t>サンプル2-2</t>
-  </si>
-  <si>
-    <t>/sample_pages/page2/2.html</t>
-  </si>
-  <si>
-    <t>サンプルページ3</t>
-  </si>
-  <si>
-    <t>/sample_pages/page3/</t>
-  </si>
-  <si>
-    <t>サンプル3-1</t>
-  </si>
-  <si>
-    <t>/sample_pages/page3/1.html</t>
-  </si>
-  <si>
-    <t>サンプル3-2</t>
-  </si>
-  <si>
-    <t>/sample_pages/page3/2.html</t>
-  </si>
-  <si>
-    <t>ヘルプ</t>
-  </si>
-  <si>
-    <t>/sample_pages/help/</t>
-  </si>
-  <si>
     <t>EndOfData</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Dashboard 2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/index2.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/pages/calendar.html</t>
+  </si>
+  <si>
+    <t>/pages/charts/chartjs.html</t>
+  </si>
+  <si>
+    <t>/pages/charts/flot.html</t>
+  </si>
+  <si>
+    <t>/pages/charts/inline.html</t>
+  </si>
+  <si>
+    <t>/pages/charts/morris.html</t>
+  </si>
+  <si>
+    <t>/pages/examples/404.html</t>
+  </si>
+  <si>
+    <t>/pages/examples/500.html</t>
+  </si>
+  <si>
+    <t>/pages/examples/blank.html</t>
+  </si>
+  <si>
+    <t>/pages/examples/invoice-print.html</t>
+  </si>
+  <si>
+    <t>/pages/examples/invoice.html</t>
+  </si>
+  <si>
+    <t>/pages/examples/lockscreen.html</t>
+  </si>
+  <si>
+    <t>/pages/examples/login.html</t>
+  </si>
+  <si>
+    <t>/pages/examples/register.html</t>
+  </si>
+  <si>
+    <t>/pages/forms/advanced.html</t>
+  </si>
+  <si>
+    <t>/pages/forms/editors.html</t>
+  </si>
+  <si>
+    <t>/pages/forms/general.html</t>
+  </si>
+  <si>
+    <t>/pages/layout/boxed.html</t>
+  </si>
+  <si>
+    <t>/pages/layout/collapsed-sidebar.html</t>
+  </si>
+  <si>
+    <t>/pages/layout/fixed.html</t>
+  </si>
+  <si>
+    <t>/pages/layout/top-nav.html</t>
+  </si>
+  <si>
+    <t>/pages/mailbox/compose.html</t>
+  </si>
+  <si>
+    <t>/pages/mailbox/mailbox.html</t>
+  </si>
+  <si>
+    <t>/pages/mailbox/read-mail.html</t>
+  </si>
+  <si>
+    <t>/pages/mailbox.html</t>
+  </si>
+  <si>
+    <t>/pages/tables/data.html</t>
+  </si>
+  <si>
+    <t>/pages/tables/simple.html</t>
+  </si>
+  <si>
+    <t>/pages/UI/buttons.html</t>
+  </si>
+  <si>
+    <t>/pages/UI/general.html</t>
+  </si>
+  <si>
+    <t>/pages/UI/icons.html</t>
+  </si>
+  <si>
+    <t>/pages/UI/modals.html</t>
+  </si>
+  <si>
+    <t>/pages/UI/sliders.html</t>
+  </si>
+  <si>
+    <t>/pages/UI/timeline.html</t>
+  </si>
+  <si>
+    <t>/pages/widgets.html</t>
+  </si>
+  <si>
+    <t>calendar</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>charts</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ChartJS</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Flot</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Inline</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Morris</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Examples</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>404</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Blank</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>invoice print</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>invoice</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>lock screen</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Forms</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Advanced</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Editors</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>General</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Boxed</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Layout</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Fixed</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Top Navigation</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Collapsed Sidebar</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Mailbox</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>compose</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>mailbox</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>read mail</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Tables</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Simple</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Buttons</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Genela</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>icons</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Modals</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Sliders</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Timeline</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Widgets</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Documentation</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/documentation/</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="メイリオ"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="メイリオ"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="メイリオ"/>
     </font>
   </fonts>
@@ -315,10 +456,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -334,19 +472,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFcccccc"/>
+        <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdddddd"/>
+        <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
-    <border/>
+  <borders count="6">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -360,13 +504,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -374,13 +519,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -388,13 +534,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -402,51 +549,77 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="15">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -736,43 +909,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:T31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.625" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="true" style="0"/>
-    <col min="2" max="2" width="3" customWidth="true" style="0"/>
-    <col min="3" max="3" width="3" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3" customWidth="true" style="0"/>
-    <col min="5" max="5" width="3" customWidth="true" style="0"/>
-    <col min="6" max="6" width="3" customWidth="true" style="0"/>
-    <col min="7" max="7" width="20" customWidth="true" style="0"/>
-    <col min="8" max="8" width="2" customWidth="true" style="0"/>
-    <col min="9" max="9" width="2" customWidth="true" style="0"/>
-    <col min="10" max="10" width="2" customWidth="true" style="0"/>
-    <col min="11" max="11" width="2" customWidth="true" style="0"/>
-    <col min="12" max="12" width="40" customWidth="true" style="0"/>
-    <col min="13" max="13" width="20" customWidth="true" style="0"/>
-    <col min="14" max="14" width="3" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9" customWidth="true" style="0"/>
-    <col min="18" max="18" width="30" customWidth="true" style="0"/>
-    <col min="17" max="17" width="30" customWidth="true" style="0"/>
-    <col min="16" max="16" width="3" customWidth="true" style="0"/>
-    <col min="19" max="19" width="3" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="11" width="2" customWidth="1"/>
+    <col min="12" max="12" width="40" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="3" customWidth="1"/>
+    <col min="17" max="18" width="30" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" customHeight="1" ht="10">
+    <row r="1" spans="1:20" ht="10" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +958,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" ht="37">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -810,14 +972,14 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
@@ -862,14 +1024,14 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="5" t="s">
         <v>20</v>
       </c>
@@ -913,7 +1075,7 @@
     <row r="9" spans="1:20">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -925,14 +1087,14 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4">
         <v>1</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="9"/>
@@ -944,7 +1106,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -955,7 +1117,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4">
@@ -963,24 +1125,18 @@
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S10" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="C11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="8"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -989,7 +1145,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4">
@@ -1005,11 +1161,13 @@
     <row r="12" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="C12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="8"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="4"/>
@@ -1017,7 +1175,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4">
@@ -1033,11 +1191,10 @@
     <row r="13" spans="1:20">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="D13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="8"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="4"/>
@@ -1045,7 +1202,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4">
@@ -1061,11 +1218,10 @@
     <row r="14" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="D14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="8"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="4"/>
@@ -1073,7 +1229,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4">
@@ -1089,11 +1245,10 @@
     <row r="15" spans="1:20">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="D15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="8"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="4"/>
@@ -1101,7 +1256,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4">
@@ -1117,9 +1272,11 @@
     <row r="16" spans="1:20">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
-        <v>50</v>
+      <c r="C16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1129,7 +1286,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4">
@@ -1146,24 +1303,18 @@
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
-        <v>4</v>
+      <c r="D17" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4">
@@ -1171,12 +1322,8 @@
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
     </row>
@@ -1185,7 +1332,7 @@
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1195,7 +1342,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4">
@@ -1203,12 +1350,8 @@
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
     </row>
@@ -1217,7 +1360,7 @@
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1227,7 +1370,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4">
@@ -1235,12 +1378,8 @@
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R19" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
@@ -1249,7 +1388,7 @@
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1259,22 +1398,16 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="M20" s="4"/>
       <c r="N20" s="4">
         <v>1</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
     </row>
@@ -1283,7 +1416,7 @@
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1293,7 +1426,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4">
@@ -1301,22 +1434,18 @@
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1325,7 +1454,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4">
@@ -1333,15 +1462,9 @@
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S22" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="4"/>
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20">
@@ -1349,7 +1472,7 @@
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -1359,7 +1482,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4">
@@ -1367,21 +1490,19 @@
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="4"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="D24" s="8" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1391,7 +1512,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4">
@@ -1399,22 +1520,18 @@
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1423,7 +1540,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4">
@@ -1431,15 +1548,9 @@
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S25" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20">
@@ -1447,7 +1558,7 @@
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -1457,7 +1568,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4">
@@ -1465,21 +1576,19 @@
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="4"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="D27" s="8" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -1489,7 +1598,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4">
@@ -1497,22 +1606,17 @@
       </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="4"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="7"/>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1521,7 +1625,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4">
@@ -1529,55 +1633,499 @@
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R28" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
     </row>
-    <row r="31" spans="1:20" customHeight="1" ht="5">
-      <c r="A31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
+    <row r="29" spans="1:20">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4">
+        <v>1</v>
+      </c>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6"/>
+      <c r="D32" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4">
+        <v>1</v>
+      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4">
+        <v>1</v>
+      </c>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4">
+        <v>1</v>
+      </c>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="4"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4">
+        <v>1</v>
+      </c>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="4"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4">
+        <v>1</v>
+      </c>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="4"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4">
+        <v>1</v>
+      </c>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="4"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4">
+        <v>1</v>
+      </c>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="4"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4">
+        <v>1</v>
+      </c>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="4"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4">
+        <v>1</v>
+      </c>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="11"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11">
+        <v>1</v>
+      </c>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+    </row>
+    <row r="47" spans="1:20" ht="5" customHeight="1">
+      <c r="A47" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.0</t>
   </si>
@@ -401,6 +401,14 @@
   </si>
   <si>
     <t>/documentation/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Edit TEST</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/edit_test/</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -565,7 +573,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -581,8 +589,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -597,11 +607,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -609,6 +620,7 @@
     <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -617,6 +629,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -913,10 +926,10 @@
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
+      <selection pane="bottomRight" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.625" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -972,14 +985,14 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1024,14 +1037,14 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="5" t="s">
         <v>20</v>
       </c>
@@ -2088,6 +2101,34 @@
       <c r="R44" s="9"/>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="14"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14">
+        <v>1</v>
+      </c>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
     </row>
     <row r="47" spans="1:20" ht="5" customHeight="1">
       <c r="A47" s="10" t="s">

--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
+    <workbookView xWindow="30940" yWindow="2820" windowWidth="25600" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="sitemap" sheetId="1" r:id="rId1"/>
@@ -926,10 +926,10 @@
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L46" sqref="L46"/>
+      <selection pane="bottomRight" activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.625" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -943,7 +943,7 @@
     <col min="14" max="14" width="3" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="18" width="30" customWidth="1"/>
+    <col min="17" max="18" width="5.375" customWidth="1"/>
     <col min="19" max="19" width="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1112,7 +1112,9 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="4"/>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20">
@@ -1140,7 +1142,9 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="4"/>
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20">
@@ -1168,7 +1172,9 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="4"/>
+      <c r="S11" s="4">
+        <v>1</v>
+      </c>
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20">
@@ -1198,7 +1204,9 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="4"/>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20">
@@ -1309,7 +1317,9 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="4"/>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20">
@@ -1535,7 +1545,9 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
-      <c r="S24" s="4"/>
+      <c r="S24" s="4">
+        <v>1</v>
+      </c>
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20">
@@ -1621,7 +1633,9 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
-      <c r="S27" s="4"/>
+      <c r="S27" s="4">
+        <v>1</v>
+      </c>
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20">
@@ -1732,7 +1746,9 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
-      <c r="S31" s="4"/>
+      <c r="S31" s="4">
+        <v>1</v>
+      </c>
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20">
@@ -1845,7 +1861,9 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
-      <c r="S35" s="4"/>
+      <c r="S35" s="4">
+        <v>1</v>
+      </c>
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20">
@@ -1903,7 +1921,9 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
-      <c r="S37" s="4"/>
+      <c r="S37" s="4">
+        <v>1</v>
+      </c>
       <c r="T37" s="4"/>
     </row>
     <row r="38" spans="1:20">
@@ -2071,7 +2091,9 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
-      <c r="S43" s="4"/>
+      <c r="S43" s="4">
+        <v>1</v>
+      </c>
       <c r="T43" s="4"/>
     </row>
     <row r="44" spans="1:20">
@@ -2099,7 +2121,9 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
-      <c r="S44" s="11"/>
+      <c r="S44" s="11">
+        <v>1</v>
+      </c>
       <c r="T44" s="11"/>
     </row>
     <row r="45" spans="1:20">
@@ -2127,7 +2151,9 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
-      <c r="S45" s="14"/>
+      <c r="S45" s="14">
+        <v>1</v>
+      </c>
       <c r="T45" s="14"/>
     </row>
     <row r="47" spans="1:20" ht="5" customHeight="1">

--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30940" yWindow="2820" windowWidth="25600" windowHeight="15620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="sitemap" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.0</t>
   </si>
@@ -409,6 +409,14 @@
   </si>
   <si>
     <t>/edit_test/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Style Guide</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/style_guide/</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -573,7 +581,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -591,8 +599,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -608,11 +618,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -621,6 +632,7 @@
     <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -630,6 +642,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -923,13 +936,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S46" sqref="S46"/>
+      <selection pane="bottomRight" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.625" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -985,14 +998,14 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1037,14 +1050,14 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="5" t="s">
         <v>20</v>
       </c>
@@ -2127,58 +2140,88 @@
       <c r="T44" s="11"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="14"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="6"/>
       <c r="C45" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14">
-        <v>1</v>
-      </c>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15">
+        <v>1</v>
+      </c>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
-      <c r="S45" s="14">
-        <v>1</v>
-      </c>
-      <c r="T45" s="14"/>
-    </row>
-    <row r="47" spans="1:20" ht="5" customHeight="1">
-      <c r="A47" s="10" t="s">
+      <c r="S45" s="15">
+        <v>1</v>
+      </c>
+      <c r="T45" s="15"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="14"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14">
+        <v>1</v>
+      </c>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="14">
+        <v>1</v>
+      </c>
+      <c r="T46" s="14"/>
+    </row>
+    <row r="48" spans="1:20" ht="5" customHeight="1">
+      <c r="A48" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
